--- a/results/DT/75Hz_2classes/res_hyperopt.xlsx
+++ b/results/DT/75Hz_2classes/res_hyperopt.xlsx
@@ -470,19 +470,19 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0.68</v>
+        <v>0.67</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>{'max_depth': 56, 'max_features': 0.30157691928133157, 'min_samples_leaf': 0.004200992754524914, 'min_samples_split': 0.00259709583685043}</t>
+          <t>{'max_depth': 34, 'max_features': 0.09317099863909536, 'min_samples_leaf': 0.001259255208441173, 'min_samples_split': 0.0013701453897704899}</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>{'var_25_75': 0.076, 'mean_10_25': 0.178, 'max_10_25': 0.005, 'percScore_10_25': 0.037, 'entropy_10_25': 0.104, 'score_at_perc_10_25': 0.029, 'coef_var_10_25': 0.057, 'std_class_10_25': 0.02, 'var_10_25': 0.133, 'mean_10_50': 0.06, 'kurt_10_50': 0.022, 'score_at_perc_10_50': 0.02, 'min_10_50': 0.044, 'var_10_50': 0.05, 'mean_25_75': 0.045, 'kurt_25_75': 0.053, 'skew_25_75': 0.024, 'percScore_25_75': 0.008, 'coef_var_25_75': 0.007, 'coef_kstatvar_25_75': 0.028}</t>
+          <t>{'var_25_75': 0.021, 'mean_10_25': 0.015, 'max_10_25': 0.137, 'kurt_10_25': 0.04, 'skew_10_25': 0.016, 'entropy_10_25': 0.014, 'score_at_perc_10_25': 0.063, 'coef_var_10_25': 0.032, 'min_10_25': 0.036, 'std_class_10_25': 0.058, 'var_10_25': 0.104, 'mean_10_50': 0.002, 'max_10_50': 0.053, 'kurt_10_50': 0.038, 'mad_10_50': 0.018, 'percScore_10_50': 0.056, 'score_at_perc_10_50': 0.024, 'coef_kstatvar_10_50': 0.014, 'min_10_50': 0.013, 'std_class_10_50': 0.05, 'var_10_50': 0.03, 'kurt_25_75': 0.021, 'skew_25_75': 0.055, 'percScore_25_75': 0.06, 'entropy_25_75': 0.013, 'score_at_perc_25_75': 0.008, 'std_class_25_75': 0.01}</t>
         </is>
       </c>
     </row>
@@ -503,7 +503,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>{'max_depth': 80, 'max_features': 0.8312210268414677, 'min_samples_leaf': 0.009450385854238, 'min_samples_split': 0.023817197483625797}</t>
+          <t>{'max_depth': 17, 'max_features': 0.824409687754759, 'min_samples_leaf': 0.010192325942375638, 'min_samples_split': 0.0011531559788081928}</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -522,19 +522,19 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.99</v>
+        <v>0.98</v>
       </c>
       <c r="D4" t="n">
         <v>0.73</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>{'max_depth': 55, 'max_features': 0.5371308100611856, 'min_samples_leaf': 0.001324327449393406, 'min_samples_split': 0.0095615626044437}</t>
+          <t>{'max_depth': 55, 'max_features': 0.3741699882214276, 'min_samples_leaf': 0.0011745768310287418, 'min_samples_split': 0.019917749974547032}</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>{'mean_10_25': 0.058, 'max_10_25': 0.02, 'kurt_10_25': 0.031, 'percScore_10_25': 0.02, 'entropy_10_25': 0.031, 'score_at_perc_10_25': 0.066, 'coef_var_10_25': 0.082, 'min_10_25': 0.072, 'std_class_10_25': 0.009, 'var_10_25': 0.032, 'max_10_50': 0.013, 'kurt_10_50': 0.012, 'skew_10_50': 0.013, 'mad_10_50': 0.011, 'percScore_10_50': 0.015, 'score_at_perc_10_50': 0.076, 'coef_kstatvar_10_50': 0.007, 'std_class_10_50': 0.024, 'var_10_50': 0.01, 'mean_25_75': 0.04, 'max_25_75': 0.022, 'kurt_25_75': 0.013, 'coef_kstatvar_25_75': 0.015, 'min_25_75': 0.238, 'std_class_25_75': 0.069}</t>
+          <t>{'var_25_75': 0.063, 'mean_10_25': 0.139, 'max_10_25': 0.035, 'kurt_10_25': 0.015, 'mad_10_25': 0.003, 'percScore_10_25': 0.01, 'entropy_10_25': 0.053, 'coef_var_10_25': 0.075, 'coef_kstatvar_10_25': 0.007, 'min_10_25': 0.089, 'mean_10_50': 0.025, 'max_10_50': 0.047, 'kurt_10_50': 0.013, 'skew_10_50': 0.009, 'entropy_10_50': 0.008, 'score_at_perc_10_50': 0.014, 'coef_var_10_50': 0.043, 'coef_kstatvar_10_50': 0.03, 'skew_25_75': 0.015, 'score_at_perc_25_75': 0.022, 'coef_kstatvar_25_75': 0.016, 'min_25_75': 0.257, 'std_class_25_75': 0.011}</t>
         </is>
       </c>
     </row>
@@ -548,19 +548,19 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.72</v>
+        <v>0.79</v>
       </c>
       <c r="D5" t="n">
-        <v>0.82</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>{'max_depth': 24, 'max_features': 0.1696927763822718, 'min_samples_leaf': 0.10008476281506783, 'min_samples_split': 0.34856313603292655}</t>
+          <t>{'max_depth': 63, 'max_features': 0.10050219101236166, 'min_samples_leaf': 0.042119063233305026, 'min_samples_split': 0.09447603000000315}</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>{'var_25_75': 0.288, 'max_10_25': 0.163, 'max_10_50': 0.133, 'min_25_75': 0.416}</t>
+          <t>{'var_25_75': 0.131, 'kurt_10_25': 0.019, 'skew_10_25': 0.041, 'percScore_10_25': 0.099, 'entropy_10_25': 0.123, 'score_at_perc_10_25': 0.021, 'var_10_25': 0.243, 'max_10_50': 0.16, 'coef_kstatvar_10_50': 0.035, 'var_10_50': 0.072, 'skew_25_75': 0.002, 'coef_var_25_75': 0.053}</t>
         </is>
       </c>
     </row>
@@ -574,19 +574,19 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.91</v>
+        <v>0.97</v>
       </c>
       <c r="D6" t="n">
-        <v>0.68</v>
+        <v>0.71</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>{'max_depth': 47, 'max_features': 0.40615203247626996, 'min_samples_leaf': 0.010358098485032845, 'min_samples_split': 0.07160600988514697}</t>
+          <t>{'max_depth': 20, 'max_features': 0.2896755184544211, 'min_samples_leaf': 0.0014807844240382652, 'min_samples_split': 0.024444442573450843}</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>{'var_25_75': 0.007, 'mean_10_25': 0.288, 'max_10_25': 0.074, 'kurt_10_25': 0.007, 'score_at_perc_10_25': 0.113, 'min_10_25': 0.085, 'coef_var_10_50': 0.06, 'max_25_75': 0.027, 'kurt_25_75': 0.011, 'score_at_perc_25_75': 0.019, 'min_25_75': 0.051, 'std_class_25_75': 0.258}</t>
+          <t>{'var_25_75': 0.045, 'mean_10_25': 0.223, 'kurt_10_25': 0.036, 'entropy_10_25': 0.035, 'score_at_perc_10_25': 0.02, 'coef_var_10_25': 0.012, 'coef_kstatvar_10_25': 0.015, 'min_10_25': 0.021, 'std_class_10_25': 0.057, 'var_10_25': 0.008, 'mean_10_50': 0.08, 'kurt_10_50': 0.026, 'coef_var_10_50': 0.015, 'min_10_50': 0.08, 'std_class_10_50': 0.054, 'mean_25_75': 0.15, 'kurt_25_75': 0.021, 'skew_25_75': 0.008, 'percScore_25_75': 0.036, 'score_at_perc_25_75': 0.055}</t>
         </is>
       </c>
     </row>
@@ -600,19 +600,19 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.95</v>
+        <v>0.9</v>
       </c>
       <c r="D7" t="n">
-        <v>0.72</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>{'max_depth': 33, 'max_features': 0.20633893760982264, 'min_samples_leaf': 0.009786194241569582, 'min_samples_split': 0.01789458641941882}</t>
+          <t>{'max_depth': 39, 'max_features': 0.6907003234705645, 'min_samples_leaf': 0.017303586606122683, 'min_samples_split': 0.0838349651705804}</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>{'var_25_75': 0.06, 'max_10_25': 0.149, 'kurt_10_25': 0.004, 'entropy_10_25': 0.053, 'score_at_perc_10_25': 0.078, 'coef_kstatvar_10_25': 0.044, 'std_class_10_25': 0.014, 'var_10_25': 0.03, 'mean_10_50': 0.113, 'entropy_10_50': 0.033, 'score_at_perc_10_50': 0.044, 'coef_var_10_50': 0.084, 'coef_kstatvar_10_50': 0.016, 'min_10_50': 0.019, 'std_class_10_50': 0.054, 'mean_25_75': 0.032, 'min_25_75': 0.144, 'std_class_25_75': 0.028}</t>
+          <t>{'mean_10_25': 0.333, 'percScore_10_25': 0.028, 'coef_var_10_25': 0.095, 'std_class_10_25': 0.189, 'max_10_50': 0.002, 'skew_10_50': 0.014, 'min_10_50': 0.024, 'std_class_10_50': 0.059, 'mean_25_75': 0.164, 'percScore_25_75': 0.042, 'min_25_75': 0.05}</t>
         </is>
       </c>
     </row>
@@ -626,19 +626,19 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.85</v>
+        <v>0.92</v>
       </c>
       <c r="D8" t="n">
-        <v>0.83</v>
+        <v>0.82</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>{'max_depth': 82, 'max_features': 0.12917393587781606, 'min_samples_leaf': 0.019031436750429093, 'min_samples_split': 0.0018320617807745035}</t>
+          <t>{'max_depth': 74, 'max_features': 0.15217767690866174, 'min_samples_leaf': 0.008083148199750846, 'min_samples_split': 0.004659102595696796}</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>{'mean_10_25': 0.065, 'max_10_25': 0.073, 'percScore_10_25': 0.073, 'score_at_perc_10_25': 0.03, 'min_10_25': 0.017, 'std_class_10_25': 0.196, 'var_10_25': 0.046, 'mean_10_50': 0.006, 'percScore_10_50': 0.028, 'score_at_perc_10_50': 0.142, 'coef_var_10_50': 0.111, 'mean_25_75': 0.014, 'kurt_25_75': 0.028, 'skew_25_75': 0.017, 'score_at_perc_25_75': 0.012, 'min_25_75': 0.14, 'std_class_25_75': 0.003}</t>
+          <t>{'var_25_75': 0.008, 'mean_10_25': 0.019, 'max_10_25': 0.011, 'kurt_10_25': 0.051, 'score_at_perc_10_25': 0.049, 'coef_var_10_25': 0.008, 'coef_kstatvar_10_25': 0.129, 'min_10_25': 0.095, 'std_class_10_25': 0.077, 'var_10_25': 0.113, 'mean_10_50': 0.047, 'max_10_50': 0.066, 'skew_10_50': 0.01, 'percScore_10_50': 0.032, 'score_at_perc_10_50': 0.003, 'var_10_50': 0.004, 'mean_25_75': 0.043, 'max_25_75': 0.013, 'kurt_25_75': 0.014, 'percScore_25_75': 0.04, 'entropy_25_75': 0.026, 'coef_var_25_75': 0.032, 'min_25_75': 0.112}</t>
         </is>
       </c>
     </row>
@@ -652,19 +652,19 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.76</v>
+        <v>0.75</v>
       </c>
       <c r="D9" t="n">
         <v>0.82</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>{'max_depth': 94, 'max_features': 0.9466467780740709, 'min_samples_leaf': 0.002216113259972355, 'min_samples_split': 0.2790820362868749}</t>
+          <t>{'max_depth': 19, 'max_features': 0.7131648266644164, 'min_samples_leaf': 0.0013752546296952068, 'min_samples_split': 0.2894830779006718}</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>{'mean_10_25': 0.413, 'min_10_25': 0.09, 'std_class_10_50': 0.044, 'mean_25_75': 0.073, 'max_25_75': 0.111, 'kurt_25_75': 0.058, 'min_25_75': 0.212}</t>
+          <t>{'mean_10_25': 0.338, 'coef_kstatvar_10_25': 0.096, 'std_class_10_25': 0.083, 'mean_10_50': 0.077, 'mean_25_75': 0.075, 'max_25_75': 0.114, 'std_class_25_75': 0.218}</t>
         </is>
       </c>
     </row>
@@ -678,19 +678,19 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.83</v>
+        <v>0.82</v>
       </c>
       <c r="D10" t="n">
         <v>0.8</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>{'max_depth': 36, 'max_features': 0.174184064512272, 'min_samples_leaf': 0.0013117534383155468, 'min_samples_split': 0.09946179690974427}</t>
+          <t>{'max_depth': 73, 'max_features': 0.16287655092190131, 'min_samples_leaf': 0.015485067779950228, 'min_samples_split': 0.11709881763846498}</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>{'var_25_75': 0.078, 'max_10_25': 0.053, 'skew_10_25': 0.022, 'score_at_perc_10_25': 0.261, 'std_class_10_25': 0.183, 'mean_10_50': 0.03, 'kurt_10_50': 0.018, 'skew_10_50': 0.022, 'score_at_perc_10_50': 0.052, 'min_10_50': 0.043, 'mean_25_75': 0.076, 'score_at_perc_25_75': 0.03, 'min_25_75': 0.133}</t>
+          <t>{'var_25_75': 0.086, 'max_10_25': 0.058, 'score_at_perc_10_25': 0.1, 'coef_var_10_25': 0.128, 'std_class_10_25': 0.201, 'mean_10_50': 0.032, 'kurt_10_50': 0.018, 'score_at_perc_10_50': 0.057, 'min_10_50': 0.048, 'mean_25_75': 0.081, 'skew_25_75': 0.011, 'score_at_perc_25_75': 0.033, 'min_25_75': 0.147}</t>
         </is>
       </c>
     </row>
@@ -704,19 +704,19 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.72</v>
+        <v>0.78</v>
       </c>
       <c r="D11" t="n">
         <v>0.9</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>{'max_depth': 76, 'max_features': 0.16973173860734528, 'min_samples_leaf': 0.11067633234168849, 'min_samples_split': 0.3325318760049287}</t>
+          <t>{'max_depth': 7, 'max_features': 0.5023340289587537, 'min_samples_leaf': 0.0432157886476731, 'min_samples_split': 0.01971103887897766}</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>{'var_25_75': 0.384, 'max_10_25': 0.133, 'max_25_75': 0.112, 'min_25_75': 0.371}</t>
+          <t>{'var_25_75': 0.132, 'mean_10_25': 0.278, 'score_at_perc_10_25': 0.052, 'min_10_25': 0.131, 'kurt_10_50': 0.102, 'var_10_50': 0.048, 'kurt_25_75': 0.071, 'min_25_75': 0.186}</t>
         </is>
       </c>
     </row>
@@ -730,19 +730,19 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.98</v>
       </c>
       <c r="D12" t="n">
-        <v>0.67</v>
+        <v>0.73</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>{'max_depth': 35, 'max_features': 0.4813576665941553, 'min_samples_leaf': 0.0012949080220919862, 'min_samples_split': 0.173082760509881}</t>
+          <t>{'max_depth': 30, 'max_features': 0.7295068273495373, 'min_samples_leaf': 0.0014349629358446775, 'min_samples_split': 0.014139243377316438}</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>{'mean_10_25': 0.366, 'max_10_25': 0.054, 'kurt_10_25': 0.004, 'coef_var_10_25': 0.068, 'kurt_10_50': 0.048, 'coef_kstatvar_10_50': 0.095, 'var_10_50': 0.247, 'max_25_75': 0.108, 'min_25_75': 0.008, 'std_class_25_75': 0.002}</t>
+          <t>{'mean_10_25': 0.15, 'kurt_10_25': 0.012, 'skew_10_25': 0.024, 'percScore_10_25': 0.021, 'entropy_10_25': 0.024, 'coef_var_10_25': 0.042, 'coef_kstatvar_10_25': 0.059, 'min_10_25': 0.078, 'std_class_10_25': 0.121, 'var_10_25': 0.021, 'mean_10_50': 0.004, 'max_10_50': 0.055, 'skew_10_50': 0.046, 'entropy_10_50': 0.012, 'std_class_10_50': 0.002, 'mean_25_75': 0.101, 'max_25_75': 0.033, 'kurt_25_75': 0.012, 'skew_25_75': 0.034, 'score_at_perc_25_75': 0.019, 'std_class_25_75': 0.131}</t>
         </is>
       </c>
     </row>
@@ -756,19 +756,19 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.9</v>
+        <v>0.85</v>
       </c>
       <c r="D13" t="n">
-        <v>0.78</v>
+        <v>0.77</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>{'max_depth': 20, 'max_features': 0.48319503769765476, 'min_samples_leaf': 0.01645125548552749, 'min_samples_split': 0.01234727646668751}</t>
+          <t>{'max_depth': 70, 'max_features': 0.4449190871510159, 'min_samples_leaf': 0.03358705319467395, 'min_samples_split': 0.07966771905672837}</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>{'mean_10_25': 0.168, 'max_10_25': 0.007, 'kurt_10_25': 0.02, 'percScore_10_25': 0.035, 'coef_var_10_25': 0.055, 'coef_kstatvar_10_25': 0.023, 'min_10_25': 0.1, 'std_class_10_25': 0.051, 'var_10_25': 0.079, 'kurt_10_50': 0.071, 'skew_10_50': 0.001, 'percScore_10_50': 0.002, 'coef_var_10_50': 0.043, 'coef_kstatvar_10_50': 0.013, 'std_class_10_50': 0.034, 'mean_25_75': 0.121, 'max_25_75': 0.002, 'entropy_25_75': 0.089, 'score_at_perc_25_75': 0.013, 'coef_var_25_75': 0.001, 'min_25_75': 0.071, 'std_class_25_75': 0.001}</t>
+          <t>{'mean_10_25': 0.213, 'score_at_perc_10_25': 0.069, 'coef_var_10_25': 0.09, 'min_10_25': 0.224, 'kurt_10_50': 0.044, 'score_at_perc_10_50': 0.018, 'coef_var_10_50': 0.052, 'mean_25_75': 0.06, 'max_25_75': 0.015, 'skew_25_75': 0.027, 'min_25_75': 0.026, 'std_class_25_75': 0.162}</t>
         </is>
       </c>
     </row>
@@ -782,19 +782,19 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="D14" t="n">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>{'max_depth': 96, 'max_features': 0.10974776546391043, 'min_samples_leaf': 0.002550440407214698, 'min_samples_split': 0.0011425181135680008}</t>
+          <t>{'max_depth': 64, 'max_features': 0.12852415872208295, 'min_samples_leaf': 0.002597059932211, 'min_samples_split': 0.009054746747357123}</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>{'var_25_75': 0.034, 'mean_10_25': 0.008, 'max_10_25': 0.078, 'kurt_10_25': 0.021, 'skew_10_25': 0.027, 'mad_10_25': 0.014, 'percScore_10_25': 0.014, 'entropy_10_25': 0.03, 'score_at_perc_10_25': 0.052, 'coef_var_10_25': 0.015, 'coef_kstatvar_10_25': 0.02, 'min_10_25': 0.062, 'std_class_10_25': 0.088, 'var_10_25': 0.022, 'mean_10_50': 0.008, 'kurt_10_50': 0.029, 'percScore_10_50': 0.04, 'coef_kstatvar_10_50': 0.01, 'min_10_50': 0.058, 'std_class_10_50': 0.041, 'var_10_50': 0.023, 'mean_25_75': 0.045, 'max_25_75': 0.03, 'kurt_25_75': 0.031, 'skew_25_75': 0.023, 'percScore_25_75': 0.01, 'entropy_25_75': 0.018, 'score_at_perc_25_75': 0.014, 'coef_kstatvar_25_75': 0.008, 'min_25_75': 0.098, 'std_class_25_75': 0.031}</t>
+          <t>{'var_25_75': 0.038, 'skew_10_25': 0.005, 'percScore_10_25': 0.034, 'entropy_10_25': 0.022, 'score_at_perc_10_25': 0.015, 'coef_var_10_25': 0.011, 'coef_kstatvar_10_25': 0.022, 'min_10_25': 0.039, 'std_class_10_25': 0.118, 'var_10_25': 0.05, 'mean_10_50': 0.046, 'kurt_10_50': 0.004, 'skew_10_50': 0.038, 'percScore_10_50': 0.048, 'entropy_10_50': 0.008, 'score_at_perc_10_50': 0.071, 'coef_var_10_50': 0.093, 'min_10_50': 0.019, 'std_class_10_50': 0.011, 'var_10_50': 0.012, 'mean_25_75': 0.019, 'max_25_75': 0.027, 'kurt_25_75': 0.018, 'skew_25_75': 0.018, 'entropy_25_75': 0.039, 'score_at_perc_25_75': 0.029, 'coef_kstatvar_25_75': 0.022, 'min_25_75': 0.107, 'std_class_25_75': 0.018}</t>
         </is>
       </c>
     </row>
@@ -808,19 +808,19 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="D15" t="n">
-        <v>0.68</v>
+        <v>0.78</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>{'max_depth': 81, 'max_features': 0.6696618946253682, 'min_samples_leaf': 0.0012461613461946502, 'min_samples_split': 0.0013386072735732096}</t>
+          <t>{'max_depth': 97, 'max_features': 0.3129359340422691, 'min_samples_leaf': 0.001962223973941997, 'min_samples_split': 0.018104328555192173}</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>{'var_25_75': 0.036, 'mean_10_25': 0.155, 'max_10_25': 0.025, 'kurt_10_25': 0.018, 'skew_10_25': 0.011, 'percScore_10_25': 0.011, 'entropy_10_25': 0.025, 'coef_var_10_25': 0.039, 'coef_kstatvar_10_25': 0.036, 'min_10_25': 0.063, 'std_class_10_25': 0.062, 'var_10_25': 0.011, 'max_10_50': 0.031, 'kurt_10_50': 0.02, 'skew_10_50': 0.017, 'percScore_10_50': 0.018, 'entropy_10_50': 0.009, 'coef_var_10_50': 0.041, 'coef_kstatvar_10_50': 0.02, 'var_10_50': 0.021, 'mean_25_75': 0.065, 'max_25_75': 0.006, 'kurt_25_75': 0.008, 'skew_25_75': 0.025, 'percScore_25_75': 0.037, 'score_at_perc_25_75': 0.01, 'coef_kstatvar_25_75': 0.033, 'min_25_75': 0.018, 'std_class_25_75': 0.132}</t>
+          <t>{'var_25_75': 0.11, 'mean_10_25': 0.144, 'max_10_25': 0.029, 'kurt_10_25': 0.013, 'skew_10_25': 0.02, 'entropy_10_25': 0.018, 'score_at_perc_10_25': 0.03, 'coef_var_10_25': 0.018, 'std_class_10_25': 0.069, 'mean_10_50': 0.005, 'max_10_50': 0.054, 'skew_10_50': 0.027, 'entropy_10_50': 0.011, 'score_at_perc_10_50': 0.012, 'coef_var_10_50': 0.026, 'coef_kstatvar_10_50': 0.019, 'min_10_50': 0.012, 'std_class_10_50': 0.038, 'var_10_50': 0.032, 'mean_25_75': 0.073, 'max_25_75': 0.011, 'kurt_25_75': 0.028, 'skew_25_75': 0.041, 'entropy_25_75': 0.011, 'score_at_perc_25_75': 0.12, 'coef_kstatvar_25_75': 0.008, 'std_class_25_75': 0.019}</t>
         </is>
       </c>
     </row>
@@ -841,12 +841,12 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>{'max_depth': 42, 'max_features': 0.27457896691874883, 'min_samples_leaf': 0.0014006997626523458, 'min_samples_split': 0.011248529737055507}</t>
+          <t>{'max_depth': 32, 'max_features': 0.6191911373246559, 'min_samples_leaf': 0.0014616293848347989, 'min_samples_split': 0.01223278212184439}</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>{'mean_10_25': 0.173, 'skew_10_25': 0.028, 'percScore_10_25': 0.015, 'entropy_10_25': 0.01, 'score_at_perc_10_25': 0.017, 'coef_var_10_25': 0.012, 'coef_kstatvar_10_25': 0.012, 'min_10_25': 0.067, 'std_class_10_25': 0.14, 'var_10_25': 0.023, 'kurt_10_50': 0.107, 'skew_10_50': 0.028, 'coef_var_10_50': 0.082, 'min_10_50': 0.05, 'std_class_10_50': 0.015, 'var_10_50': 0.016, 'mean_25_75': 0.04, 'max_25_75': 0.019, 'kurt_25_75': 0.014, 'skew_25_75': 0.003, 'entropy_25_75': 0.01, 'score_at_perc_25_75': 0.001, 'std_class_25_75': 0.118}</t>
+          <t>{'mean_10_25': 0.168, 'skew_10_25': 0.021, 'entropy_10_25': 0.02, 'score_at_perc_10_25': 0.013, 'coef_var_10_25': 0.11, 'coef_kstatvar_10_25': 0.01, 'min_10_25': 0.077, 'std_class_10_25': 0.098, 'var_10_25': 0.003, 'max_10_50': 0.014, 'kurt_10_50': 0.071, 'skew_10_50': 0.017, 'entropy_10_50': 0.01, 'score_at_perc_10_50': 0.006, 'std_class_10_50': 0.104, 'var_10_50': 0.016, 'mean_25_75': 0.049, 'max_25_75': 0.011, 'kurt_25_75': 0.018, 'percScore_25_75': 0.013, 'entropy_25_75': 0.012, 'min_25_75': 0.115, 'std_class_25_75': 0.024}</t>
         </is>
       </c>
     </row>

--- a/results/DT/75Hz_2classes/res_hyperopt.xlsx
+++ b/results/DT/75Hz_2classes/res_hyperopt.xlsx
@@ -436,7 +436,7 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>name</t>
+          <t>load</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -477,12 +477,12 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>{'max_depth': 34, 'max_features': 0.09317099863909536, 'min_samples_leaf': 0.001259255208441173, 'min_samples_split': 0.0013701453897704899}</t>
+          <t>{'max_depth': 17, 'max_features': 0.09199367286692757, 'min_samples_leaf': 0.0018043483002335887, 'min_samples_split': 0.0010825640300390488}</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>{'var_25_75': 0.021, 'mean_10_25': 0.015, 'max_10_25': 0.137, 'kurt_10_25': 0.04, 'skew_10_25': 0.016, 'entropy_10_25': 0.014, 'score_at_perc_10_25': 0.063, 'coef_var_10_25': 0.032, 'min_10_25': 0.036, 'std_class_10_25': 0.058, 'var_10_25': 0.104, 'mean_10_50': 0.002, 'max_10_50': 0.053, 'kurt_10_50': 0.038, 'mad_10_50': 0.018, 'percScore_10_50': 0.056, 'score_at_perc_10_50': 0.024, 'coef_kstatvar_10_50': 0.014, 'min_10_50': 0.013, 'std_class_10_50': 0.05, 'var_10_50': 0.03, 'kurt_25_75': 0.021, 'skew_25_75': 0.055, 'percScore_25_75': 0.06, 'entropy_25_75': 0.013, 'score_at_perc_25_75': 0.008, 'std_class_25_75': 0.01}</t>
+          <t>{'max_10_25': 0.137, 'var_10_25': 0.104, 'score_at_perc_10_25': 0.063, 'percScore_25_75': 0.06, 'std_class_10_25': 0.058, 'percScore_10_50': 0.056, 'skew_25_75': 0.055, 'max_10_50': 0.053, 'std_class_10_50': 0.05, 'kurt_10_25': 0.04, 'kurt_10_50': 0.038, 'min_10_25': 0.036, 'coef_var_10_25': 0.032, 'var_10_50': 0.03, 'score_at_perc_10_50': 0.024, 'var_25_75': 0.021, 'kurt_25_75': 0.021, 'mad_10_50': 0.018, 'skew_10_25': 0.016, 'mean_10_25': 0.015, 'entropy_10_25': 0.014, 'coef_kstatvar_10_50': 0.014, 'min_10_50': 0.013, 'entropy_25_75': 0.013, 'std_class_25_75': 0.01, 'score_at_perc_25_75': 0.008, 'mean_10_50': 0.002}</t>
         </is>
       </c>
     </row>
@@ -496,19 +496,19 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.97</v>
+        <v>0.99</v>
       </c>
       <c r="D3" t="n">
-        <v>0.72</v>
+        <v>0.7</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>{'max_depth': 17, 'max_features': 0.824409687754759, 'min_samples_leaf': 0.010192325942375638, 'min_samples_split': 0.0011531559788081928}</t>
+          <t>{'max_depth': 50, 'max_features': 0.3797954862884763, 'min_samples_leaf': 0.001040471442533295, 'min_samples_split': 0.012146457170652231}</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>{'mean_10_25': 0.115, 'max_10_25': 0.021, 'skew_10_25': 0.005, 'percScore_10_25': 0.042, 'score_at_perc_10_25': 0.018, 'min_10_25': 0.006, 'std_class_10_25': 0.162, 'var_10_25': 0.108, 'mean_10_50': 0.035, 'kurt_10_50': 0.017, 'mad_10_50': 0.004, 'percScore_10_50': 0.022, 'entropy_10_50': 0.007, 'coef_var_10_50': 0.017, 'coef_kstatvar_10_50': 0.074, 'min_10_50': 0.026, 'std_class_10_50': 0.033, 'var_10_50': 0.044, 'mean_25_75': 0.009, 'max_25_75': 0.033, 'kurt_25_75': 0.012, 'skew_25_75': 0.039, 'min_25_75': 0.15}</t>
+          <t>{'min_25_75': 0.14, 'mean_10_25': 0.107, 'var_10_25': 0.091, 'min_10_25': 0.086, 'coef_kstatvar_10_50': 0.069, 'skew_25_75': 0.064, 'var_10_50': 0.055, 'percScore_10_50': 0.054, 'var_25_75': 0.045, 'mean_10_50': 0.041, 'coef_var_25_75': 0.028, 'max_10_25': 0.027, 'kurt_10_50': 0.027, 'skew_10_50': 0.024, 'skew_10_25': 0.022, 'mean_25_75': 0.015, 'kurt_25_75': 0.014, 'coef_kstatvar_25_75': 0.014, 'max_25_75': 0.012, 'entropy_25_75': 0.012, 'coef_var_10_50': 0.011, 'score_at_perc_25_75': 0.011, 'max_10_50': 0.01, 'entropy_10_25': 0.009, 'std_class_25_75': 0.008, 'coef_var_10_25': 0.003}</t>
         </is>
       </c>
     </row>
@@ -529,12 +529,12 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>{'max_depth': 55, 'max_features': 0.3741699882214276, 'min_samples_leaf': 0.0011745768310287418, 'min_samples_split': 0.019917749974547032}</t>
+          <t>{'max_depth': 65, 'max_features': 0.3731755497352057, 'min_samples_leaf': 0.0010316885754382329, 'min_samples_split': 0.02001317971709829}</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>{'var_25_75': 0.063, 'mean_10_25': 0.139, 'max_10_25': 0.035, 'kurt_10_25': 0.015, 'mad_10_25': 0.003, 'percScore_10_25': 0.01, 'entropy_10_25': 0.053, 'coef_var_10_25': 0.075, 'coef_kstatvar_10_25': 0.007, 'min_10_25': 0.089, 'mean_10_50': 0.025, 'max_10_50': 0.047, 'kurt_10_50': 0.013, 'skew_10_50': 0.009, 'entropy_10_50': 0.008, 'score_at_perc_10_50': 0.014, 'coef_var_10_50': 0.043, 'coef_kstatvar_10_50': 0.03, 'skew_25_75': 0.015, 'score_at_perc_25_75': 0.022, 'coef_kstatvar_25_75': 0.016, 'min_25_75': 0.257, 'std_class_25_75': 0.011}</t>
+          <t>{'min_25_75': 0.257, 'mean_10_25': 0.139, 'min_10_25': 0.089, 'coef_var_10_25': 0.075, 'var_25_75': 0.063, 'entropy_10_25': 0.053, 'max_10_50': 0.047, 'coef_var_10_50': 0.043, 'max_10_25': 0.035, 'coef_kstatvar_10_50': 0.03, 'mean_10_50': 0.025, 'score_at_perc_25_75': 0.022, 'coef_kstatvar_25_75': 0.016, 'kurt_10_25': 0.015, 'skew_25_75': 0.015, 'score_at_perc_10_50': 0.014, 'kurt_10_50': 0.013, 'std_class_25_75': 0.011, 'percScore_10_25': 0.01, 'skew_10_50': 0.009, 'entropy_10_50': 0.008, 'coef_kstatvar_10_25': 0.007, 'mad_10_25': 0.003}</t>
         </is>
       </c>
     </row>
@@ -555,12 +555,12 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>{'max_depth': 63, 'max_features': 0.10050219101236166, 'min_samples_leaf': 0.042119063233305026, 'min_samples_split': 0.09447603000000315}</t>
+          <t>{'max_depth': 89, 'max_features': 0.09174158279921613, 'min_samples_leaf': 0.04338596172283124, 'min_samples_split': 0.001924969376363675}</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>{'var_25_75': 0.131, 'kurt_10_25': 0.019, 'skew_10_25': 0.041, 'percScore_10_25': 0.099, 'entropy_10_25': 0.123, 'score_at_perc_10_25': 0.021, 'var_10_25': 0.243, 'max_10_50': 0.16, 'coef_kstatvar_10_50': 0.035, 'var_10_50': 0.072, 'skew_25_75': 0.002, 'coef_var_25_75': 0.053}</t>
+          <t>{'var_10_25': 0.243, 'max_10_50': 0.16, 'var_25_75': 0.131, 'entropy_10_25': 0.123, 'percScore_10_25': 0.099, 'var_10_50': 0.072, 'coef_var_25_75': 0.053, 'skew_10_25': 0.041, 'coef_kstatvar_10_50': 0.035, 'score_at_perc_10_25': 0.021, 'kurt_10_25': 0.019, 'skew_25_75': 0.002}</t>
         </is>
       </c>
     </row>
@@ -574,19 +574,19 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.97</v>
+        <v>0.92</v>
       </c>
       <c r="D6" t="n">
-        <v>0.71</v>
+        <v>0.68</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>{'max_depth': 20, 'max_features': 0.2896755184544211, 'min_samples_leaf': 0.0014807844240382652, 'min_samples_split': 0.024444442573450843}</t>
+          <t>{'max_depth': 38, 'max_features': 0.8281910108967384, 'min_samples_leaf': 0.018800340648603107, 'min_samples_split': 0.06745588658908139}</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>{'var_25_75': 0.045, 'mean_10_25': 0.223, 'kurt_10_25': 0.036, 'entropy_10_25': 0.035, 'score_at_perc_10_25': 0.02, 'coef_var_10_25': 0.012, 'coef_kstatvar_10_25': 0.015, 'min_10_25': 0.021, 'std_class_10_25': 0.057, 'var_10_25': 0.008, 'mean_10_50': 0.08, 'kurt_10_50': 0.026, 'coef_var_10_50': 0.015, 'min_10_50': 0.08, 'std_class_10_50': 0.054, 'mean_25_75': 0.15, 'kurt_25_75': 0.021, 'skew_25_75': 0.008, 'percScore_25_75': 0.036, 'score_at_perc_25_75': 0.055}</t>
+          <t>{'mean_10_25': 0.334, 'min_25_75': 0.256, 'std_class_10_25': 0.11, 'std_class_10_50': 0.088, 'kurt_25_75': 0.05, 'std_class_25_75': 0.044, 'entropy_10_25': 0.038, 'entropy_10_50': 0.036, 'skew_25_75': 0.027, 'var_25_75': 0.013, 'kurt_10_50': 0.003}</t>
         </is>
       </c>
     </row>
@@ -600,19 +600,19 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="D7" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.7</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>{'max_depth': 39, 'max_features': 0.6907003234705645, 'min_samples_leaf': 0.017303586606122683, 'min_samples_split': 0.0838349651705804}</t>
+          <t>{'max_depth': 36, 'max_features': 0.676328141324835, 'min_samples_leaf': 0.008095639962120916, 'min_samples_split': 0.08249985374277106}</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>{'mean_10_25': 0.333, 'percScore_10_25': 0.028, 'coef_var_10_25': 0.095, 'std_class_10_25': 0.189, 'max_10_50': 0.002, 'skew_10_50': 0.014, 'min_10_50': 0.024, 'std_class_10_50': 0.059, 'mean_25_75': 0.164, 'percScore_25_75': 0.042, 'min_25_75': 0.05}</t>
+          <t>{'mean_10_25': 0.297, 'mean_25_75': 0.162, 'coef_var_10_25': 0.094, 'percScore_10_25': 0.091, 'std_class_25_75': 0.062, 'score_at_perc_25_75': 0.059, 'std_class_10_25': 0.048, 'std_class_10_50': 0.046, 'percScore_25_75': 0.041, 'score_at_perc_10_50': 0.04, 'kurt_10_25': 0.023, 'min_25_75': 0.019, 'skew_10_25': 0.012, 'entropy_25_75': 0.006}</t>
         </is>
       </c>
     </row>
@@ -626,19 +626,19 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="D8" t="n">
         <v>0.82</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>{'max_depth': 74, 'max_features': 0.15217767690866174, 'min_samples_leaf': 0.008083148199750846, 'min_samples_split': 0.004659102595696796}</t>
+          <t>{'max_depth': 10, 'max_features': 0.13837853726493812, 'min_samples_leaf': 0.0011381695883510043, 'min_samples_split': 0.009444735921287577}</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>{'var_25_75': 0.008, 'mean_10_25': 0.019, 'max_10_25': 0.011, 'kurt_10_25': 0.051, 'score_at_perc_10_25': 0.049, 'coef_var_10_25': 0.008, 'coef_kstatvar_10_25': 0.129, 'min_10_25': 0.095, 'std_class_10_25': 0.077, 'var_10_25': 0.113, 'mean_10_50': 0.047, 'max_10_50': 0.066, 'skew_10_50': 0.01, 'percScore_10_50': 0.032, 'score_at_perc_10_50': 0.003, 'var_10_50': 0.004, 'mean_25_75': 0.043, 'max_25_75': 0.013, 'kurt_25_75': 0.014, 'percScore_25_75': 0.04, 'entropy_25_75': 0.026, 'coef_var_25_75': 0.032, 'min_25_75': 0.112}</t>
+          <t>{'std_class_10_25': 0.187, 'coef_kstatvar_10_25': 0.127, 'min_25_75': 0.101, 'var_10_25': 0.086, 'mean_10_50': 0.077, 'mean_10_25': 0.068, 'score_at_perc_10_25': 0.051, 'max_10_50': 0.03, 'max_25_75': 0.028, 'coef_var_10_25': 0.025, 'coef_var_10_50': 0.025, 'std_class_25_75': 0.024, 'entropy_25_75': 0.023, 'skew_10_25': 0.021, 'score_at_perc_10_50': 0.019, 'coef_kstatvar_10_50': 0.016, 'score_at_perc_25_75': 0.014, 'entropy_10_50': 0.013, 'kurt_10_25': 0.012, 'min_10_25': 0.011, 'var_10_50': 0.011, 'percScore_25_75': 0.011, 'min_10_50': 0.008, 'entropy_10_25': 0.004, 'skew_10_50': 0.004, 'var_25_75': 0.003}</t>
         </is>
       </c>
     </row>
@@ -659,12 +659,12 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>{'max_depth': 19, 'max_features': 0.7131648266644164, 'min_samples_leaf': 0.0013752546296952068, 'min_samples_split': 0.2894830779006718}</t>
+          <t>{'max_depth': 97, 'max_features': 0.6934447624924933, 'min_samples_leaf': 0.011626476596387091, 'min_samples_split': 0.27392916802183276}</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>{'mean_10_25': 0.338, 'coef_kstatvar_10_25': 0.096, 'std_class_10_25': 0.083, 'mean_10_50': 0.077, 'mean_25_75': 0.075, 'max_25_75': 0.114, 'std_class_25_75': 0.218}</t>
+          <t>{'mean_10_25': 0.338, 'std_class_25_75': 0.218, 'max_25_75': 0.114, 'coef_kstatvar_10_25': 0.096, 'std_class_10_25': 0.083, 'mean_10_50': 0.077, 'mean_25_75': 0.075}</t>
         </is>
       </c>
     </row>
@@ -678,19 +678,19 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.82</v>
+        <v>0.88</v>
       </c>
       <c r="D10" t="n">
-        <v>0.8</v>
+        <v>0.85</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>{'max_depth': 73, 'max_features': 0.16287655092190131, 'min_samples_leaf': 0.015485067779950228, 'min_samples_split': 0.11709881763846498}</t>
+          <t>{'max_depth': 61, 'max_features': 0.3900548085020154, 'min_samples_leaf': 0.016936884436645233, 'min_samples_split': 0.037922050111064864}</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>{'var_25_75': 0.086, 'max_10_25': 0.058, 'score_at_perc_10_25': 0.1, 'coef_var_10_25': 0.128, 'std_class_10_25': 0.201, 'mean_10_50': 0.032, 'kurt_10_50': 0.018, 'score_at_perc_10_50': 0.057, 'min_10_50': 0.048, 'mean_25_75': 0.081, 'skew_25_75': 0.011, 'score_at_perc_25_75': 0.033, 'min_25_75': 0.147}</t>
+          <t>{'mean_10_25': 0.202, 'mean_25_75': 0.127, 'entropy_10_25': 0.068, 'std_class_10_25': 0.067, 'kurt_10_25': 0.064, 'score_at_perc_10_50': 0.06, 'coef_kstatvar_10_25': 0.057, 'std_class_10_50': 0.052, 'mean_10_50': 0.047, 'min_10_25': 0.046, 'coef_var_10_50': 0.043, 'max_10_50': 0.041, 'var_25_75': 0.024, 'percScore_10_25': 0.023, 'coef_var_10_25': 0.022, 'min_25_75': 0.019, 'percScore_25_75': 0.017, 'coef_kstatvar_10_50': 0.011, 'max_25_75': 0.005, 'max_10_25': 0.004, 'coef_var_25_75': 0.001}</t>
         </is>
       </c>
     </row>
@@ -704,19 +704,19 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.78</v>
+        <v>0.76</v>
       </c>
       <c r="D11" t="n">
         <v>0.9</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>{'max_depth': 7, 'max_features': 0.5023340289587537, 'min_samples_leaf': 0.0432157886476731, 'min_samples_split': 0.01971103887897766}</t>
+          <t>{'max_depth': 9, 'max_features': 0.5110810816758862, 'min_samples_leaf': 0.04390446155690945, 'min_samples_split': 0.09607078795037027}</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>{'var_25_75': 0.132, 'mean_10_25': 0.278, 'score_at_perc_10_25': 0.052, 'min_10_25': 0.131, 'kurt_10_50': 0.102, 'var_10_50': 0.048, 'kurt_25_75': 0.071, 'min_25_75': 0.186}</t>
+          <t>{'mean_10_25': 0.265, 'min_25_75': 0.177, 'var_25_75': 0.126, 'min_10_25': 0.125, 'kurt_10_50': 0.097, 'kurt_25_75': 0.067, 'max_10_25': 0.055, 'var_10_50': 0.045, 'min_10_50': 0.043}</t>
         </is>
       </c>
     </row>
@@ -730,19 +730,19 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="D12" t="n">
-        <v>0.73</v>
+        <v>0.72</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>{'max_depth': 30, 'max_features': 0.7295068273495373, 'min_samples_leaf': 0.0014349629358446775, 'min_samples_split': 0.014139243377316438}</t>
+          <t>{'max_depth': 12, 'max_features': 0.18726222280402893, 'min_samples_leaf': 0.0014605736816935555, 'min_samples_split': 0.0016197106864197484}</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>{'mean_10_25': 0.15, 'kurt_10_25': 0.012, 'skew_10_25': 0.024, 'percScore_10_25': 0.021, 'entropy_10_25': 0.024, 'coef_var_10_25': 0.042, 'coef_kstatvar_10_25': 0.059, 'min_10_25': 0.078, 'std_class_10_25': 0.121, 'var_10_25': 0.021, 'mean_10_50': 0.004, 'max_10_50': 0.055, 'skew_10_50': 0.046, 'entropy_10_50': 0.012, 'std_class_10_50': 0.002, 'mean_25_75': 0.101, 'max_25_75': 0.033, 'kurt_25_75': 0.012, 'skew_25_75': 0.034, 'score_at_perc_25_75': 0.019, 'std_class_25_75': 0.131}</t>
+          <t>{'min_10_25': 0.124, 'min_25_75': 0.105, 'std_class_10_50': 0.101, 'coef_var_10_25': 0.086, 'var_25_75': 0.062, 'entropy_10_25': 0.051, 'std_class_10_25': 0.047, 'skew_10_25': 0.041, 'percScore_10_25': 0.038, 'var_10_25': 0.037, 'std_class_25_75': 0.037, 'score_at_perc_10_25': 0.035, 'coef_var_10_50': 0.033, 'max_10_50': 0.026, 'kurt_10_25': 0.022, 'mean_10_25': 0.018, 'mean_10_50': 0.018, 'percScore_25_75': 0.018, 'max_10_25': 0.014, 'percScore_10_50': 0.014, 'kurt_10_50': 0.013, 'skew_25_75': 0.013, 'score_at_perc_10_50': 0.012, 'entropy_10_50': 0.011, 'entropy_25_75': 0.011, 'mean_25_75': 0.009, 'min_10_50': 0.005}</t>
         </is>
       </c>
     </row>
@@ -756,19 +756,19 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="D13" t="n">
-        <v>0.77</v>
+        <v>0.78</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>{'max_depth': 70, 'max_features': 0.4449190871510159, 'min_samples_leaf': 0.03358705319467395, 'min_samples_split': 0.07966771905672837}</t>
+          <t>{'max_depth': 9, 'max_features': 0.4623303823149221, 'min_samples_leaf': 0.016742559791167372, 'min_samples_split': 0.0220228917742141}</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>{'mean_10_25': 0.213, 'score_at_perc_10_25': 0.069, 'coef_var_10_25': 0.09, 'min_10_25': 0.224, 'kurt_10_50': 0.044, 'score_at_perc_10_50': 0.018, 'coef_var_10_50': 0.052, 'mean_25_75': 0.06, 'max_25_75': 0.015, 'skew_25_75': 0.027, 'min_25_75': 0.026, 'std_class_25_75': 0.162}</t>
+          <t>{'mean_10_25': 0.168, 'mean_25_75': 0.121, 'min_10_25': 0.1, 'entropy_25_75': 0.089, 'var_10_25': 0.079, 'kurt_10_50': 0.071, 'min_25_75': 0.071, 'coef_var_10_25': 0.055, 'std_class_10_25': 0.051, 'coef_var_10_50': 0.043, 'percScore_10_25': 0.035, 'std_class_10_50': 0.034, 'coef_kstatvar_10_25': 0.023, 'kurt_10_25': 0.02, 'coef_kstatvar_10_50': 0.013, 'score_at_perc_25_75': 0.013, 'max_10_25': 0.007, 'percScore_10_50': 0.002, 'max_25_75': 0.002, 'skew_10_50': 0.001, 'coef_var_25_75': 0.001, 'std_class_25_75': 0.001}</t>
         </is>
       </c>
     </row>
@@ -782,19 +782,19 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0.97</v>
+        <v>0.91</v>
       </c>
       <c r="D14" t="n">
-        <v>0.93</v>
+        <v>0.92</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>{'max_depth': 64, 'max_features': 0.12852415872208295, 'min_samples_leaf': 0.002597059932211, 'min_samples_split': 0.009054746747357123}</t>
+          <t>{'max_depth': 60, 'max_features': 0.26300054534538253, 'min_samples_leaf': 0.0014969936163874945, 'min_samples_split': 0.04179753992971888}</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>{'var_25_75': 0.038, 'skew_10_25': 0.005, 'percScore_10_25': 0.034, 'entropy_10_25': 0.022, 'score_at_perc_10_25': 0.015, 'coef_var_10_25': 0.011, 'coef_kstatvar_10_25': 0.022, 'min_10_25': 0.039, 'std_class_10_25': 0.118, 'var_10_25': 0.05, 'mean_10_50': 0.046, 'kurt_10_50': 0.004, 'skew_10_50': 0.038, 'percScore_10_50': 0.048, 'entropy_10_50': 0.008, 'score_at_perc_10_50': 0.071, 'coef_var_10_50': 0.093, 'min_10_50': 0.019, 'std_class_10_50': 0.011, 'var_10_50': 0.012, 'mean_25_75': 0.019, 'max_25_75': 0.027, 'kurt_25_75': 0.018, 'skew_25_75': 0.018, 'entropy_25_75': 0.039, 'score_at_perc_25_75': 0.029, 'coef_kstatvar_25_75': 0.022, 'min_25_75': 0.107, 'std_class_25_75': 0.018}</t>
+          <t>{'min_25_75': 0.114, 'score_at_perc_10_25': 0.106, 'coef_var_10_25': 0.103, 'kurt_10_25': 0.087, 'std_class_10_25': 0.067, 'max_10_50': 0.06, 'mean_25_75': 0.055, 'mean_10_50': 0.051, 'min_10_25': 0.049, 'max_10_25': 0.041, 'var_10_50': 0.038, 'var_25_75': 0.035, 'max_25_75': 0.035, 'min_10_50': 0.029, 'percScore_25_75': 0.023, 'entropy_10_25': 0.021, 'std_class_10_50': 0.018, 'mean_10_25': 0.015, 'coef_kstatvar_10_25': 0.015, 'score_at_perc_10_50': 0.014, 'coef_kstatvar_25_75': 0.013, 'score_at_perc_25_75': 0.008, 'var_10_25': 0.005}</t>
         </is>
       </c>
     </row>
@@ -808,19 +808,19 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0.97</v>
+        <v>0.91</v>
       </c>
       <c r="D15" t="n">
         <v>0.78</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>{'max_depth': 97, 'max_features': 0.3129359340422691, 'min_samples_leaf': 0.001962223973941997, 'min_samples_split': 0.018104328555192173}</t>
+          <t>{'max_depth': 30, 'max_features': 0.15172883745174298, 'min_samples_leaf': 0.008328669165421139, 'min_samples_split': 0.018877161323014834}</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>{'var_25_75': 0.11, 'mean_10_25': 0.144, 'max_10_25': 0.029, 'kurt_10_25': 0.013, 'skew_10_25': 0.02, 'entropy_10_25': 0.018, 'score_at_perc_10_25': 0.03, 'coef_var_10_25': 0.018, 'std_class_10_25': 0.069, 'mean_10_50': 0.005, 'max_10_50': 0.054, 'skew_10_50': 0.027, 'entropy_10_50': 0.011, 'score_at_perc_10_50': 0.012, 'coef_var_10_50': 0.026, 'coef_kstatvar_10_50': 0.019, 'min_10_50': 0.012, 'std_class_10_50': 0.038, 'var_10_50': 0.032, 'mean_25_75': 0.073, 'max_25_75': 0.011, 'kurt_25_75': 0.028, 'skew_25_75': 0.041, 'entropy_25_75': 0.011, 'score_at_perc_25_75': 0.12, 'coef_kstatvar_25_75': 0.008, 'std_class_25_75': 0.019}</t>
+          <t>{'min_10_25': 0.204, 'min_25_75': 0.177, 'std_class_10_50': 0.078, 'var_10_25': 0.075, 'coef_var_10_50': 0.066, 'score_at_perc_10_25': 0.055, 'std_class_10_25': 0.055, 'var_25_75': 0.031, 'max_25_75': 0.031, 'coef_kstatvar_10_25': 0.029, 'max_10_25': 0.026, 'percScore_25_75': 0.026, 'mean_10_25': 0.025, 'skew_10_50': 0.022, 'kurt_10_25': 0.019, 'entropy_10_50': 0.017, 'kurt_10_50': 0.013, 'percScore_10_25': 0.012, 'min_10_50': 0.011, 'var_10_50': 0.011, 'skew_10_25': 0.007, 'score_at_perc_25_75': 0.007, 'score_at_perc_10_50': 0.005}</t>
         </is>
       </c>
     </row>
@@ -841,12 +841,12 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>{'max_depth': 32, 'max_features': 0.6191911373246559, 'min_samples_leaf': 0.0014616293848347989, 'min_samples_split': 0.01223278212184439}</t>
+          <t>{'max_depth': 76, 'max_features': 0.6381221022203092, 'min_samples_leaf': 0.0013920936568683612, 'min_samples_split': 0.01117718591880999}</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>{'mean_10_25': 0.168, 'skew_10_25': 0.021, 'entropy_10_25': 0.02, 'score_at_perc_10_25': 0.013, 'coef_var_10_25': 0.11, 'coef_kstatvar_10_25': 0.01, 'min_10_25': 0.077, 'std_class_10_25': 0.098, 'var_10_25': 0.003, 'max_10_50': 0.014, 'kurt_10_50': 0.071, 'skew_10_50': 0.017, 'entropy_10_50': 0.01, 'score_at_perc_10_50': 0.006, 'std_class_10_50': 0.104, 'var_10_50': 0.016, 'mean_25_75': 0.049, 'max_25_75': 0.011, 'kurt_25_75': 0.018, 'percScore_25_75': 0.013, 'entropy_25_75': 0.012, 'min_25_75': 0.115, 'std_class_25_75': 0.024}</t>
+          <t>{'mean_10_25': 0.168, 'min_25_75': 0.115, 'coef_var_10_25': 0.11, 'std_class_10_50': 0.104, 'std_class_10_25': 0.098, 'min_10_25': 0.077, 'kurt_10_50': 0.071, 'mean_25_75': 0.049, 'std_class_25_75': 0.024, 'skew_10_25': 0.021, 'entropy_10_25': 0.02, 'kurt_25_75': 0.018, 'skew_10_50': 0.017, 'var_10_50': 0.016, 'max_10_50': 0.014, 'score_at_perc_10_25': 0.013, 'percScore_25_75': 0.013, 'entropy_25_75': 0.012, 'max_25_75': 0.011, 'coef_kstatvar_10_25': 0.01, 'entropy_10_50': 0.01, 'score_at_perc_10_50': 0.006, 'var_10_25': 0.003}</t>
         </is>
       </c>
     </row>
